--- a/lectures/data/tidydata.xlsx
+++ b/lectures/data/tidydata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roland.krause/Workspace/tv_course/lectures/lecture05_tidyr_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roland.krause/Workspace/tv_course/lectures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="2320" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="10240" yWindow="2320" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Subjects" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Gender</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Subject ID</t>
   </si>
   <si>
-    <t>Family ID</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
@@ -167,6 +164,12 @@
   </si>
   <si>
     <t>L1872</t>
+  </si>
+  <si>
+    <t>Subject_ID</t>
+  </si>
+  <si>
+    <t>Family_ID</t>
   </si>
 </sst>
 </file>
@@ -485,17 +488,17 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>106</v>
@@ -621,7 +624,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>108</v>
@@ -641,7 +644,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>109</v>
@@ -661,7 +664,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>110</v>
@@ -678,7 +681,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>111</v>
@@ -705,18 +708,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -748,7 +751,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -756,7 +759,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,7 +767,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -780,7 +783,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -788,7 +791,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -804,7 +807,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -812,7 +815,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -820,7 +823,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +839,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -844,7 +847,7 @@
         <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -876,7 +879,7 @@
         <v>111</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -915,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -923,7 +926,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -931,7 +934,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,7 +942,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -947,7 +950,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +958,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +966,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +974,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,7 +982,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +990,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +998,7 @@
         <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1006,7 @@
         <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
